--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -557,6 +557,210 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>medicalInstitutionCode</t>
@@ -592,211 +796,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>insurerNumber</t>
@@ -1105,23 +1109,31 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://jpfhir.jp/fhir/core/StructureDefinition/JP_HumanName}
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.
+識別のための人の名前情報、</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
+名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -1482,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3094,11 +3106,9 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3116,10 +3126,10 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3127,12 +3137,8 @@
       <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3180,31 +3186,31 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3232,7 +3238,7 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>177</v>
@@ -3240,7 +3246,9 @@
       <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3277,37 +3285,37 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3322,26 +3330,26 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>182</v>
@@ -3350,9 +3358,11 @@
         <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3376,49 +3386,49 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3429,7 +3439,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3446,25 +3456,25 @@
         <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3489,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3513,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3528,10 +3538,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3542,7 +3552,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3565,19 +3575,19 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3590,7 +3600,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3602,13 +3612,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3626,7 +3636,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3641,13 +3651,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3655,7 +3665,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3663,7 +3673,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
@@ -3678,32 +3688,30 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3739,7 +3747,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3754,13 +3762,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3768,7 +3776,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3791,17 +3799,15 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3814,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3856,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3865,13 +3871,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3879,7 +3885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3902,15 +3908,17 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3959,7 +3967,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3974,13 +3982,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3988,9 +3996,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4011,18 +4021,20 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4070,40 +4082,38 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4121,10 +4131,10 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>172</v>
@@ -4132,12 +4142,8 @@
       <c r="L24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4185,31 +4191,31 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4237,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>177</v>
@@ -4245,7 +4251,9 @@
       <c r="L25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4282,37 +4290,37 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4327,26 +4335,26 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>182</v>
@@ -4355,9 +4363,11 @@
         <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4381,49 +4391,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4434,7 +4444,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4451,25 +4461,25 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4494,13 +4504,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4543,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4547,7 +4557,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4570,32 +4580,32 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4607,13 +4617,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4631,7 +4641,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4646,13 +4656,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4660,7 +4670,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4668,7 +4678,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4683,32 +4693,30 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4759,13 +4767,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4773,7 +4781,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4796,17 +4804,15 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4819,7 +4825,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -4855,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4870,13 +4876,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4907,15 +4913,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4964,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4979,13 +4987,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4993,9 +5001,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5016,18 +5026,20 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5075,36 +5087,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5121,32 +5133,26 @@
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5202,28 +5208,28 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5239,23 +5245,21 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5279,31 +5283,31 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5315,24 +5319,24 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5349,25 +5353,25 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5392,13 +5396,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5425,19 +5429,19 @@
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5456,7 +5460,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5465,22 +5469,22 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5505,13 +5509,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5529,13 +5533,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5548,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5558,7 +5562,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5566,10 +5570,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5578,35 +5582,35 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5642,28 +5646,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5671,7 +5675,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5682,7 +5686,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -5691,23 +5695,21 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5755,28 +5757,28 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5784,7 +5786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5807,20 +5809,16 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5883,13 +5881,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5897,7 +5895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5908,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -5917,23 +5915,21 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5981,13 +5977,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5996,13 +5992,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6010,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6027,26 +6023,32 @@
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6102,28 +6104,28 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6139,21 +6141,23 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6177,13 +6181,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6201,7 +6205,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6213,59 +6217,59 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6314,28 +6318,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6347,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6354,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6366,17 +6370,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6401,13 +6407,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6425,13 +6431,13 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6454,7 +6460,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6465,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6477,17 +6483,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6536,28 +6544,28 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6565,7 +6573,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6588,17 +6596,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6647,7 +6657,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6656,19 +6666,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6676,7 +6686,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6696,20 +6706,22 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6758,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6773,13 +6785,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6787,7 +6799,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6810,19 +6822,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6871,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6889,12 +6901,904 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -772,7 +772,7 @@
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
+    <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
 systemはFixed Valueの
 ```
 http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no@@ -806,7 +806,7 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifer表現に使用する
+    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
 system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
   </si>
   <si>
@@ -1027,7 +1027,7 @@
 この組織が一部を構成する組織</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -560,6 +560,10 @@
   </si>
   <si>
     <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1117,7 +1121,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
@@ -3129,13 +3133,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3186,7 +3190,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3204,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3215,7 +3219,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3241,10 +3245,10 @@
         <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>157</v>
@@ -3288,7 +3292,7 @@
         <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3301,7 @@
         <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3315,7 +3319,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3326,7 +3330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3352,16 +3356,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3386,13 +3390,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3410,7 +3414,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3462,19 +3466,19 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3499,13 +3503,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3523,7 +3527,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3538,10 +3542,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3552,7 +3556,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3578,16 +3582,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3600,7 +3604,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3636,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3651,13 +3655,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3665,7 +3669,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3688,16 +3692,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3711,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3747,7 +3751,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3762,13 +3766,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3799,13 +3803,13 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3856,7 +3860,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3871,13 +3875,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3908,16 +3912,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3967,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3982,13 +3986,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3999,7 +4003,7 @@
         <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4024,16 +4028,16 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4134,13 +4138,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4191,7 +4195,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4209,7 +4213,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4224,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4246,10 +4250,10 @@
         <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -4293,7 +4297,7 @@
         <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4306,7 @@
         <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4320,7 +4324,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4331,7 +4335,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4357,16 +4361,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4415,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4433,7 +4437,7 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4448,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4467,19 +4471,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4504,13 +4508,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4528,7 +4532,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4543,10 +4547,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4583,29 +4587,29 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4641,7 +4645,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4656,13 +4660,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4693,16 +4697,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4716,7 +4720,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4752,7 +4756,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4767,13 +4771,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4804,13 +4808,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4861,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4876,13 +4880,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4913,16 +4917,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4972,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4987,13 +4991,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
         <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5029,16 +5033,16 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5139,13 +5143,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5196,7 +5200,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5214,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5251,10 +5255,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>157</v>
@@ -5298,7 +5302,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -5307,7 +5311,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5362,16 +5366,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5396,13 +5400,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5420,7 +5424,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5442,7 @@
         <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5449,7 +5453,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5472,19 +5476,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5509,13 +5513,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5533,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5548,10 +5552,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5562,7 +5566,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5588,29 +5592,29 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5646,7 +5650,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5661,13 +5665,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5679,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5698,16 +5702,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5721,7 +5725,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5757,7 +5761,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5772,13 +5776,13 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5786,7 +5790,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5809,13 +5813,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5866,7 +5870,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5881,13 +5885,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5918,16 +5922,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5977,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5992,13 +5996,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6006,7 +6010,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6029,70 +6033,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6107,21 +6111,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6144,19 +6148,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6181,13 +6185,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6205,7 +6209,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6220,21 +6224,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6257,19 +6261,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6318,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6333,13 +6337,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6347,7 +6351,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6370,19 +6374,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6431,7 +6435,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6453,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6460,7 +6464,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6483,19 +6487,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6544,7 +6548,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6553,19 +6557,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6573,7 +6577,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6596,19 +6600,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6657,7 +6661,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6666,19 +6670,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6686,7 +6690,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6709,19 +6713,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6770,7 +6774,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6785,13 +6789,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6799,7 +6803,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6822,19 +6826,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6883,7 +6887,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6901,7 +6905,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6912,7 +6916,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6935,13 +6939,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6992,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7010,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7025,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7047,10 +7051,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>157</v>
@@ -7103,7 +7107,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7121,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7132,11 +7136,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7158,10 +7162,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7245,7 +7249,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7268,17 +7272,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7303,13 +7307,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7345,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7356,7 +7360,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7379,19 +7383,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7440,7 +7444,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7455,13 +7459,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7492,17 +7496,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7551,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7566,10 +7570,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7603,17 +7607,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7662,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7677,10 +7681,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7695,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7714,19 +7718,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7775,7 +7779,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7797,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -533,6 +533,11 @@
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
 複数の異種システムにまたがって組織を識別するための識別子</t>
+  </si>
+  <si>
+    <t>もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
+医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
+例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
@@ -3032,9 +3037,11 @@
       <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3071,7 +3078,7 @@
         <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
@@ -3090,27 +3097,27 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3133,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3190,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3208,7 +3215,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3219,7 +3226,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3245,10 +3252,10 @@
         <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>157</v>
@@ -3292,7 +3299,7 @@
         <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -3301,7 +3308,7 @@
         <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3319,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3330,7 +3337,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3356,16 +3363,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3390,13 +3397,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3421,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3439,7 @@
         <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3443,7 +3450,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3466,19 +3473,19 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3503,13 +3510,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3527,7 +3534,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3542,10 +3549,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3556,7 +3563,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3582,16 +3589,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3604,7 +3611,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3640,7 +3647,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3655,13 +3662,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3669,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3692,16 +3699,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3715,7 +3722,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3758,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3766,13 +3773,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3780,7 +3787,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3803,13 +3810,13 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3860,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3875,13 +3882,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3889,7 +3896,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3912,16 +3919,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3971,7 +3978,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3986,13 +3993,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4003,7 +4010,7 @@
         <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4028,16 +4035,16 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4095,27 +4102,27 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4138,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4195,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4213,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4224,7 +4231,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4250,10 +4257,10 @@
         <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -4297,7 +4304,7 @@
         <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
@@ -4306,7 +4313,7 @@
         <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4342,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4361,16 +4368,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4395,13 +4402,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4419,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4437,7 +4444,7 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4448,7 +4455,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4471,19 +4478,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4508,13 +4515,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4532,7 +4539,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4547,10 +4554,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4561,7 +4568,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4587,29 +4594,29 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4645,7 +4652,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4660,13 +4667,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4674,7 +4681,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4697,16 +4704,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4720,7 +4727,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4756,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4771,13 +4778,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4785,7 +4792,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4808,13 +4815,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4865,7 +4872,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4880,13 +4887,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4894,7 +4901,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4917,16 +4924,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4976,7 +4983,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4991,13 +4998,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5008,7 +5015,7 @@
         <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5033,16 +5040,16 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5100,27 +5107,27 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5143,13 +5150,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5200,7 +5207,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5225,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5229,7 +5236,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5255,10 +5262,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>157</v>
@@ -5302,7 +5309,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -5311,7 +5318,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5336,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5340,7 +5347,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5366,16 +5373,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5400,13 +5407,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5424,7 +5431,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5442,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5453,7 +5460,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5476,19 +5483,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5513,13 +5520,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5537,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5552,10 +5559,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5566,7 +5573,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5592,29 +5599,29 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5650,7 +5657,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5665,13 +5672,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5679,7 +5686,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5702,16 +5709,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5725,7 +5732,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5761,7 +5768,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5776,13 +5783,13 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5790,7 +5797,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5813,13 +5820,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5870,7 +5877,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5885,13 +5892,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5899,7 +5906,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5922,16 +5929,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5981,7 +5988,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5996,13 +6003,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6010,7 +6017,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6033,70 +6040,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6111,21 +6118,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6148,19 +6155,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6185,13 +6192,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6209,7 +6216,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6224,21 +6231,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6261,19 +6268,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6322,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6331,19 +6338,19 @@
         <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6351,7 +6358,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6374,19 +6381,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6435,7 +6442,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6453,7 +6460,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6464,7 +6471,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6487,19 +6494,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6548,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6557,19 +6564,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6577,7 +6584,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6600,19 +6607,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6661,7 +6668,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6670,19 +6677,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6690,7 +6697,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6713,19 +6720,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6774,7 +6781,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6789,13 +6796,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6803,7 +6810,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6826,19 +6833,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6887,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6905,7 +6912,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6916,7 +6923,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6939,13 +6946,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6996,7 +7003,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7014,7 +7021,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7025,7 +7032,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7051,10 +7058,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>157</v>
@@ -7107,7 +7114,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7125,7 +7132,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7136,11 +7143,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7162,10 +7169,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7220,7 +7227,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7249,7 +7256,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7272,17 +7279,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7307,13 +7314,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7331,7 +7338,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7349,7 +7356,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7360,7 +7367,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7383,19 +7390,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7444,7 +7451,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7459,13 +7466,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7473,7 +7480,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7496,17 +7503,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7555,7 +7562,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7570,10 +7577,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7584,7 +7591,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7607,17 +7614,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7666,7 +7673,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7681,10 +7688,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7695,7 +7702,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7718,19 +7725,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7779,7 +7786,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7797,7 +7804,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,7 +252,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり</t>
+    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
@@ -469,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension</t>
+    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -487,7 +487,7 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension</t>
+    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -528,7 +528,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別</t>
+    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別【詳細参照】</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
@@ -784,7 +784,7 @@
     <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
 systemはFixed Valueの
 ```
-http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no+http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no ```
 を使用する。
 記載の様式(Wikipediaより転載)
@@ -805,7 +805,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
@@ -829,7 +829,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか</t>
+    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.
@@ -843,7 +843,7 @@
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.
-レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要がある。</t>
+レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザのために非表示にする必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -864,7 +864,7 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization / 組織の種類</t>
+    <t>Kind of organization / 組織の種類【詳細参照】</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.
@@ -904,7 +904,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization / 組織に使用されている名称</t>
+    <t>Name used for the organization / 組織に使用されている名称【詳細参照】</t>
   </si>
   <si>
     <t>A name associated with the organization.
@@ -931,7 +931,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.
@@ -955,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization / 組織の連絡先詳細</t>
+    <t>A contact detail for the organization / 組織の連絡先詳細【詳細参照】</t>
   </si>
   <si>
     <t>A contact detail for the organization.
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization / 組織の住所</t>
+    <t>An address for the organization / 組織の住所【詳細参照】</t>
   </si>
   <si>
     <t>An address for the organization.
@@ -1029,7 +1029,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part</t>
+    <t>The organization of which this organization forms a part【詳細参照】</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.
@@ -1053,7 +1053,7 @@
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先</t>
+    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先【詳細参照】</t>
   </si>
   <si>
     <t>Contact for the organization for a certain purpose.
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
+    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the organization.
@@ -1522,7 +1522,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -454,7 +454,7 @@
 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>都道府県番号２桁。Identifier型の拡張を使用する。
+    <t>都道府県番号２桁。Identifier型の拡張を使用する。  
 valueには都道府県番号2桁の値を格納し、systemには都道府県番号を表すOID「1.2.392.100495.20.3.21」を指定する。</t>
   </si>
   <si>
@@ -469,15 +469,14 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科 3）。Identifier型の拡張
-「OrganizationCategory」を使用する。systemには点数表番号
-を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
+「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
     <t>organizationNo</t>
@@ -487,15 +486,19 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
+    <t>医療機関コード（７桁）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁。Identifier型の拡張
-「InsuranceOrganizationNo」を使用する。systemには医療機関コードを
-表すOID「1.2.392.100495.20.3.23」を指定する。</t>
+    <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。
+valueには下記の値を格納する。  
+- 保険医療機関・保険薬局 : `医療機関コード（７桁）`
+- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`
+医療機関コードの詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+なお上記に該当しない施設は、本拡張は使用しない。</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -535,9 +538,7 @@
 複数の異種システムにまたがって組織を識別するための識別子</t>
   </si>
   <si>
-    <t>もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」</t>
+    <t>福祉医療関連施設と保険者組織はSlicingについてはJP Coreにて定義を行なっているため、定義に従いデータを格納すること。それ以外の組織については、利用する際には必要に応じて識別子を定義を行なうこと。</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
@@ -775,31 +776,15 @@
     <t>medicalInstitutionCode</t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
-systemはFixed Valueの
-```
-http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no-```
-を使用する。
-記載の様式(Wikipediaより転載)
-記載されている10桁の内訳は以下の通りである。
-　・最初の2桁 全国地方公共団体コードの都道府県コード（ISO 3166-2:JP）
-　　・都道府県ごとの番号。
-　・3桁目 点数表番号
-　　・医科は「1」。歯科は「3」。
-　　　・したがって、同一の病院または診療所に医科と歯科が併存する場合にはそれぞれ別のコードが与えられる。
-　　　・そのため、レセプトコンピュータでは一医療機関に対して医科と歯科の両方のコードを設定できるようになっている。
-　　　・ちなみに処方箋は発行されないが、「4」は調剤、「5」は老人保健施設、「6」は訪問看護ステーションである。
-　　・下7桁 医療機関コード
-　　　・地区（2桁）+番号（4桁）+チェックディジット（1桁）で構成される。
-　・7桁の医療機関コードについて
-　　各地域を所管する厚生労働省の地方支分部局である地方厚生局のホームページ等で確認できる。</t>
+    <t>施設が福祉医療関連機関である場合に利用する識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
+value : ```医療機関コード（１０桁）```を使用する。 
+医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。 </t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -813,6 +798,12 @@
   </si>
   <si>
     <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -5040,13 +5031,13 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>244</v>
@@ -5615,7 +5606,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -6017,7 +6008,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6040,70 +6031,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6118,21 +6109,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6158,16 +6149,16 @@
         <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6192,13 +6183,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6216,7 +6207,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6231,21 +6222,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6271,16 +6262,16 @@
         <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6329,7 +6320,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6344,13 +6335,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6358,7 +6349,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6384,16 +6375,16 @@
         <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6442,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6460,7 +6451,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6471,7 +6462,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6494,19 +6485,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6555,7 +6546,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6564,19 +6555,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6584,7 +6575,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6607,19 +6598,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6668,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6677,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6697,7 +6688,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6723,16 +6714,16 @@
         <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6781,7 +6772,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6796,10 +6787,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>177</v>
@@ -6810,7 +6801,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6833,19 +6824,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6894,7 +6885,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6903,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6923,7 +6914,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7032,7 +7023,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7143,11 +7134,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7169,10 +7160,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7227,7 +7218,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7256,7 +7247,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7282,14 +7273,14 @@
         <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7317,10 +7308,10 @@
         <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7338,7 +7329,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7356,7 +7347,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7367,7 +7358,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7390,19 +7381,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7451,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7466,13 +7457,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7480,7 +7471,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7503,17 +7494,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7562,7 +7553,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7568,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7591,7 +7582,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7614,17 +7605,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7673,7 +7664,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7688,10 +7679,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7702,7 +7693,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7725,19 +7716,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7786,7 +7777,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -472,11 +471,10 @@
     <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
-「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
+    <t>点数表コード１桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+  </si>
+  <si>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
     <t>organizationNo</t>
@@ -1436,55 +1434,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1546,218 +1544,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1766,10 +1764,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1778,20 +1776,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>86</v>
@@ -1810,77 +1808,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1889,20 +1887,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>86</v>
@@ -1919,77 +1917,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1998,17 +1996,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>86</v>
@@ -2030,77 +2028,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2109,23 +2107,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>105</v>
@@ -2141,26 +2139,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>109</v>
@@ -2172,46 +2170,46 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2224,19 +2222,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>115</v>
@@ -2252,77 +2250,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2335,19 +2333,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>123</v>
@@ -2363,77 +2361,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2442,23 +2440,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>130</v>
@@ -2472,45 +2470,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>134</v>
@@ -2519,28 +2517,28 @@
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2551,23 +2549,23 @@
         <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>138</v>
@@ -2583,59 +2581,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2644,16 +2642,16 @@
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2664,23 +2662,23 @@
         <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>144</v>
@@ -2696,59 +2694,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>142</v>
@@ -2757,16 +2755,16 @@
         <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2777,23 +2775,23 @@
         <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>149</v>
@@ -2809,59 +2807,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>142</v>
@@ -2870,16 +2868,16 @@
         <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2892,19 +2890,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>130</v>
@@ -2922,77 +2920,77 @@
         <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3001,20 +2999,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>86</v>
@@ -3035,45 +3033,45 @@
         <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>134</v>
@@ -3082,10 +3080,10 @@
         <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>167</v>
@@ -3112,23 +3110,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -3142,77 +3140,77 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3225,19 +3223,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>130</v>
@@ -3253,38 +3251,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>133</v>
@@ -3293,7 +3291,7 @@
         <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>134</v>
@@ -3302,28 +3300,28 @@
         <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3332,17 +3330,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>86</v>
@@ -3366,26 +3364,26 @@
         <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>188</v>
@@ -3397,31 +3395,31 @@
         <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>97</v>
@@ -3433,10 +3431,10 @@
         <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3445,20 +3443,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
@@ -3479,26 +3477,26 @@
         <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>199</v>
@@ -3510,31 +3508,31 @@
         <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>97</v>
@@ -3546,10 +3544,10 @@
         <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3558,20 +3556,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>86</v>
@@ -3592,62 +3590,62 @@
         <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>97</v>
@@ -3662,7 +3660,7 @@
         <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3671,20 +3669,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>86</v>
@@ -3703,62 +3701,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>97</v>
@@ -3773,7 +3771,7 @@
         <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3782,20 +3780,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>86</v>
@@ -3812,62 +3810,62 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>97</v>
@@ -3882,7 +3880,7 @@
         <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3891,20 +3889,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>86</v>
@@ -3923,62 +3921,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -3993,7 +3991,7 @@
         <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4004,20 +4002,20 @@
         <v>240</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>86</v>
@@ -4038,59 +4036,59 @@
         <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>167</v>
@@ -4117,23 +4115,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>173</v>
@@ -4147,77 +4145,77 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4230,19 +4228,19 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>130</v>
@@ -4258,38 +4256,38 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>133</v>
@@ -4298,7 +4296,7 @@
         <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>134</v>
@@ -4307,28 +4305,28 @@
         <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4337,17 +4335,17 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>86</v>
@@ -4371,26 +4369,26 @@
         <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>188</v>
@@ -4402,31 +4400,31 @@
         <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>97</v>
@@ -4438,10 +4436,10 @@
         <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4450,20 +4448,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
@@ -4484,26 +4482,26 @@
         <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>199</v>
@@ -4515,31 +4513,31 @@
         <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>97</v>
@@ -4551,10 +4549,10 @@
         <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4563,7 +4561,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4573,10 +4571,10 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>86</v>
@@ -4597,62 +4595,62 @@
         <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
@@ -4667,7 +4665,7 @@
         <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4676,20 +4674,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
@@ -4708,62 +4706,62 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>97</v>
@@ -4778,7 +4776,7 @@
         <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4787,20 +4785,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>86</v>
@@ -4817,62 +4815,62 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
@@ -4887,7 +4885,7 @@
         <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4896,20 +4894,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>86</v>
@@ -4928,62 +4926,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
@@ -4998,7 +4996,7 @@
         <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -5009,20 +5007,20 @@
         <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
@@ -5043,59 +5041,59 @@
         <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>167</v>
@@ -5122,23 +5120,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>173</v>
@@ -5152,77 +5150,77 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5235,19 +5233,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>130</v>
@@ -5263,38 +5261,38 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>133</v>
@@ -5303,7 +5301,7 @@
         <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>134</v>
@@ -5312,28 +5310,28 @@
         <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5342,17 +5340,17 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>86</v>
@@ -5376,26 +5374,26 @@
         <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>188</v>
@@ -5407,31 +5405,31 @@
         <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
@@ -5443,10 +5441,10 @@
         <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5455,20 +5453,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>86</v>
@@ -5489,26 +5487,26 @@
         <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>199</v>
@@ -5520,31 +5518,31 @@
         <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
@@ -5556,10 +5554,10 @@
         <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -5568,7 +5566,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5578,10 +5576,10 @@
         <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>86</v>
@@ -5602,62 +5600,62 @@
         <v>208</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
@@ -5672,7 +5670,7 @@
         <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -5681,20 +5679,20 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>86</v>
@@ -5713,62 +5711,62 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>97</v>
@@ -5783,7 +5781,7 @@
         <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -5792,20 +5790,20 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>86</v>
@@ -5822,62 +5820,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>97</v>
@@ -5892,7 +5890,7 @@
         <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -5901,20 +5899,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>86</v>
@@ -5933,62 +5931,62 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>97</v>
@@ -6003,7 +6001,7 @@
         <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6012,17 +6010,17 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>86</v>
@@ -6046,64 +6044,64 @@
         <v>257</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>258</v>
       </c>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>97</v>
@@ -6127,20 +6125,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>86</v>
@@ -6161,26 +6159,26 @@
         <v>267</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>268</v>
@@ -6192,31 +6190,31 @@
         <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>97</v>
@@ -6240,20 +6238,20 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
@@ -6274,56 +6272,56 @@
         <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>85</v>
@@ -6344,7 +6342,7 @@
         <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6353,23 +6351,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>173</v>
@@ -6387,77 +6385,77 @@
         <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6466,23 +6464,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>288</v>
@@ -6500,59 +6498,59 @@
         <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>293</v>
@@ -6570,7 +6568,7 @@
         <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -6579,23 +6577,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>299</v>
@@ -6613,59 +6611,59 @@
         <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>304</v>
@@ -6683,7 +6681,7 @@
         <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -6692,20 +6690,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>86</v>
@@ -6726,62 +6724,62 @@
         <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>97</v>
@@ -6796,7 +6794,7 @@
         <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -6805,23 +6803,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>316</v>
@@ -6839,77 +6837,77 @@
         <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -6918,23 +6916,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>173</v>
@@ -6948,77 +6946,77 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -7031,19 +7029,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>130</v>
@@ -7059,77 +7057,77 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7142,13 +7140,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>86</v>
@@ -7172,77 +7170,77 @@
         <v>158</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7251,23 +7249,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>194</v>
@@ -7283,26 +7281,26 @@
         <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>199</v>
@@ -7314,46 +7312,46 @@
         <v>334</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7362,23 +7360,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>337</v>
@@ -7396,56 +7394,56 @@
         <v>341</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>85</v>
@@ -7466,7 +7464,7 @@
         <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -7475,23 +7473,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>288</v>
@@ -7507,62 +7505,62 @@
         <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>97</v>
@@ -7574,10 +7572,10 @@
         <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -7586,23 +7584,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>299</v>
@@ -7618,62 +7616,62 @@
         <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>97</v>
@@ -7685,10 +7683,10 @@
         <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -7697,23 +7695,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>358</v>
@@ -7731,77 +7729,77 @@
         <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
